--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/vital_marciano_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ort braude college of engineering\Documents\GitHub\EKrut\EKrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1EFB7BE7-A920-4D3D-ACCE-65E853600D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A77EDFD-61CD-4C42-B6E9-72E010061CEA}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1EFB7BE7-A920-4D3D-ACCE-65E853600D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8DC9B4-E089-42C5-AFC9-814DA2B88CA8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -108,17 +98,222 @@
   </si>
   <si>
     <t>רכישה ראשונה+מבצעים</t>
+  </si>
+  <si>
+    <t>בדיקה - testcase name</t>
+  </si>
+  <si>
+    <t>rgsEKSuccsesPerchuse</t>
+  </si>
+  <si>
+    <t>rgsEKSuccsesPerchuseItemUnderMin</t>
+  </si>
+  <si>
+    <t>rgsOLDeliveySuccsesPerchuse</t>
+  </si>
+  <si>
+    <t>rgsOLPickupSuccsesPerchuseItemUnderMin</t>
+  </si>
+  <si>
+    <t>rgsOLPickupSuccsesPerchuse</t>
+  </si>
+  <si>
+    <t>rgsOLPickupMachineCmbErrorPopUp</t>
+  </si>
+  <si>
+    <t>rgsOLDeliveyEmptyHouseNumberErrorMsg</t>
+  </si>
+  <si>
+    <t>rgsOLDeliveyEmptyStreetErrorMsg</t>
+  </si>
+  <si>
+    <t>rgsOLDeliveyEmptyCityErrorMsg</t>
+  </si>
+  <si>
+    <t>rgsOLDeliveyEmptyAddressErrorMsg</t>
+  </si>
+  <si>
+    <t>rgsEKEmptyCartPaymentErrorPopup</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>הופעה שהלקוח NOT_APPPROVED</t>
+  </si>
+  <si>
+    <t>mbrEKEmptyCartPaymentErrorPopup</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesPerchuseItemUnderMin</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesPerchuse1+1&amp;PercentageSale</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesFirstPerchuse</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesFirstPerchuse&amp;ActiveSales</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesPerchuse1+1SActiveSale</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesPerchuseActivePercentageSale</t>
+  </si>
+  <si>
+    <t>rgsOLEmptyCartPaymentErrorPopup</t>
+  </si>
+  <si>
+    <t>mbrOLEmptyCartPaymentErrorPopup</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesDeliveryFirstPerchuse</t>
+  </si>
+  <si>
+    <t>mbrOLDeliveyEmptyAddressErrorMsg</t>
+  </si>
+  <si>
+    <t>mbrOLDeliveyEmptyCityErrorMsg</t>
+  </si>
+  <si>
+    <t>mbrOLDeliveyEmptyStreetErrorMsg</t>
+  </si>
+  <si>
+    <t>mbrOLDeliveyEmptyHouseNumberErrorMsg</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesPerchuseNoActiveSale</t>
+  </si>
+  <si>
+    <t>mbrOlSuccsesPerchuseNoActiveSale</t>
+  </si>
+  <si>
+    <t>mbrOLSuccsesPerchuseItemUnderMin</t>
+  </si>
+  <si>
+    <t>mbrEKPerchuseDeliveryActiveSalesNotActivated</t>
+  </si>
+  <si>
+    <t>mbrOLPickupMachineCmbErrorPopUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת פריט עד הכמות המקסימלית שלו ואז לא ניתן להוסיף - לבדוק שהוא לא זמין יצירת עוד הזמנה חיפוש המוצר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת פריט עד הכמות המקסימלית שלו והורדה תוך כדי מהכמות, בדיקת רולבק אם נצליח </t>
+  </si>
+  <si>
+    <t>member/registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת מוצר לעגלה וחזרה אחורה לביטול הזמנה - מחיקת הפריט יצירת הזמנה חדשה בדיקה שהפריטים נמחקו מהעגלה </t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>הוספת מוצר לעגלה לחיצה על CANCEL לביטול הזמנה - מחיקת הפריט יצירת הזמנה חדשה בדיקה שהפריטים נמחקו מהעגלה לחיצת אישור על הפופ אפ</t>
+  </si>
+  <si>
+    <t>מתחיל בPICKUP הוספת מוצר לעגלה וחזרה אחורה לביטול הזמנה - מחיקת הפריט יצירת הזמנה חדשה בתור משלוח, לבדוק שהוא יכול להוסיף מעל רמת המלאי וין מוצרים לא זמינים</t>
+  </si>
+  <si>
+    <t>הוספת מוצר לעגלה וחזרה אחורה לביטול הזמנה -בחירת NO</t>
+  </si>
+  <si>
+    <t>RollBack</t>
+  </si>
+  <si>
+    <t>userNotApprovedPopUp</t>
+  </si>
+  <si>
+    <t>EKReturnBtnDesictionPopUpOK</t>
+  </si>
+  <si>
+    <t>EKReturnBtnDesictionPopUpNo</t>
+  </si>
+  <si>
+    <t>OLCancelOrderBtnDesictionPopUpOKEmptyCart</t>
+  </si>
+  <si>
+    <t>OLReturnBtnDesictionPopUpOK</t>
+  </si>
+  <si>
+    <t>OLCancelOrderBtnDesictionPopUpOK</t>
+  </si>
+  <si>
+    <t>OLPickup2DeliveryStockUnbouned</t>
+  </si>
+  <si>
+    <t>OLDeliveryStockUnbounedFullCatalogSucsses</t>
+  </si>
+  <si>
+    <t>EK/OL</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>OL/EK</t>
+  </si>
+  <si>
+    <t>pickup-&gt;delivery</t>
+  </si>
+  <si>
+    <r>
+      <t>pickup/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>delivery</t>
+    </r>
+  </si>
+  <si>
+    <t>pickup/delivery</t>
+  </si>
+  <si>
+    <t>pickup-/On-site</t>
+  </si>
+  <si>
+    <t>EKEmptyCartPaymentErrorPopup</t>
+  </si>
+  <si>
+    <t>EKSuccsesPerchuseItemUnderMin</t>
+  </si>
+  <si>
+    <t>OLDeliveyEmptyAddressErrorMsg</t>
+  </si>
+  <si>
+    <t>OLDeliveyEmptyCityErrorMsg</t>
+  </si>
+  <si>
+    <t>OLDeliveyEmptyStreetErrorMsg</t>
+  </si>
+  <si>
+    <t>OLDeliveyEmptyHouseNumberErrorMsg</t>
+  </si>
+  <si>
+    <t>rgsEKSuccsesPerchusePaymentPopUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testcase name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -154,16 +349,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -268,8 +487,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -281,8 +502,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -294,8 +517,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -310,7 +535,46 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,7 +589,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -340,7 +604,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,11 +613,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,54 +645,164 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -718,575 +1110,1743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6125F9A-13D4-4C2D-9ED4-3F2D589A9322}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="F1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="F2" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>34</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>30</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>31</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>33</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>35</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>26</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>27</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>29</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6125F9A-13D4-4C2D-9ED4-3F2D589A9322}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C2" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="F6" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="F7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="F8" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="F9" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="F10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="F11" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="F12" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="F13" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="F14" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="F15" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="F16" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="F17" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="F18" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="F19" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="F20" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="F21" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="F22" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="F23" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="F24" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="F25" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="F26" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="F27" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="F28" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="F29" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="F30" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="F31" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="F32" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="F33" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="F34" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="F35" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="F36" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="F37" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="F38" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="F39" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ort braude college of engineering\Documents\GitHub\EKrut\EKrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{1EFB7BE7-A920-4D3D-ACCE-65E853600D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8DC9B4-E089-42C5-AFC9-814DA2B88CA8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{1EFB7BE7-A920-4D3D-ACCE-65E853600D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{457AB801-F2AA-4A63-9578-84E212FE8D09}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
     <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
-    <sheet name="גיליון1" sheetId="1" r:id="rId2"/>
+    <sheet name="מיני TC" sheetId="4" r:id="rId2"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="119">
   <si>
     <t>#</t>
   </si>
@@ -303,6 +304,96 @@
   </si>
   <si>
     <t xml:space="preserve"> testcase name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת מוצר, בדיקה שהוא בעגלה , הורדה באמצעות מינוס לבדוק שגם בקטלוג ירד הלבל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת מוצר, בדיקה שהוא בעגלה , הוספת כמותכפתור פלוס לבדוק שגם בקטלוג גדל  הלבל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוספת מוצר, בדיקה שהוא בעגלה , מחיקה באמצעות כפתור ה-X לבדוק שנמחק </t>
+  </si>
+  <si>
+    <t>deleteItemFromCartXBtn</t>
+  </si>
+  <si>
+    <t>IncreaseItemFromCart</t>
+  </si>
+  <si>
+    <t>deacreaseItemFromCartSuccses</t>
+  </si>
+  <si>
+    <t>הפחתת כמות ממוצר בעגלה מהקטלוג</t>
+  </si>
+  <si>
+    <t>deacreaseItemInCartFromCatalogSuccses</t>
+  </si>
+  <si>
+    <t>IncreaseItemInCartFromCatalogSuccses</t>
+  </si>
+  <si>
+    <t>הוספת כמות ממוצר בעגלה מהקטלוג</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>drecreaseAdd2Cart</t>
+  </si>
+  <si>
+    <t>increaseAdd2Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add2Cart </t>
+  </si>
+  <si>
+    <t>createNewOrder</t>
+  </si>
+  <si>
+    <t>placeOrderbtn</t>
+  </si>
+  <si>
+    <t>cancelOrderBtn</t>
+  </si>
+  <si>
+    <t>popupDecision</t>
+  </si>
+  <si>
+    <t>popupDeliveymethod</t>
+  </si>
+  <si>
+    <t>popupPickupmethod</t>
+  </si>
+  <si>
+    <t>1+1popupActive</t>
+  </si>
+  <si>
+    <t>fillAddress</t>
+  </si>
+  <si>
+    <t>succsessPopupOrder</t>
+  </si>
+  <si>
+    <t>paymentPopupRgs</t>
+  </si>
+  <si>
+    <t>smsMailPopupOKUnderStock</t>
+  </si>
+  <si>
+    <t>connetServer</t>
+  </si>
+  <si>
+    <t>cartBtn</t>
+  </si>
+  <si>
+    <t>increaseCartBtn</t>
+  </si>
+  <si>
+    <t>decreaseCartBtn</t>
+  </si>
+  <si>
+    <t>deleteCartBtn</t>
   </si>
 </sst>
 </file>
@@ -382,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -609,11 +700,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +921,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,42 +1987,132 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
-        <v>29</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="14">
+        <v>28</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="45"/>
+      <c r="E36" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>29</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>30</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>31</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>32</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>33</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E41" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F41" s="53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="20">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>34</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="29" t="s">
+      <c r="C42" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D42" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E42" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F42" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1873,10 +2123,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98325CF6-CFCC-4D8F-B345-6B6327458CD2}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
+      <c r="B19" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="64"/>
+      <c r="B20" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
+      <c r="B21" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6125F9A-13D4-4C2D-9ED4-3F2D589A9322}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>

--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ort braude college of engineering\Documents\GitHub\EKrut\EKrut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/vital_marciano_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1EFB7BE7-A920-4D3D-ACCE-65E853600D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{457AB801-F2AA-4A63-9578-84E212FE8D09}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="106_{C0C8223A-A9F7-4353-B661-105B92DF5FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1BB3F46-9E8A-4135-9F73-12733E6189DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
     <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
     <sheet name="מיני TC" sheetId="4" r:id="rId2"/>
     <sheet name="גיליון1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'בלי כפיליות'!$A$1:$F$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -282,12 +285,6 @@
     <t>pickup-/On-site</t>
   </si>
   <si>
-    <t>EKEmptyCartPaymentErrorPopup</t>
-  </si>
-  <si>
-    <t>EKSuccsesPerchuseItemUnderMin</t>
-  </si>
-  <si>
     <t>OLDeliveyEmptyAddressErrorMsg</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>OLDeliveyEmptyHouseNumberErrorMsg</t>
   </si>
   <si>
-    <t>rgsEKSuccsesPerchusePaymentPopUP</t>
-  </si>
-  <si>
     <t xml:space="preserve"> testcase name</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>increaseAdd2Cart</t>
   </si>
   <si>
-    <t xml:space="preserve">add2Cart </t>
-  </si>
-  <si>
     <t>createNewOrder</t>
   </si>
   <si>
@@ -363,12 +354,6 @@
     <t>popupDeliveymethod</t>
   </si>
   <si>
-    <t>popupPickupmethod</t>
-  </si>
-  <si>
-    <t>1+1popupActive</t>
-  </si>
-  <si>
     <t>fillAddress</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
     <t>paymentPopupRgs</t>
   </si>
   <si>
-    <t>smsMailPopupOKUnderStock</t>
-  </si>
-  <si>
     <t>connetServer</t>
   </si>
   <si>
@@ -394,6 +376,9 @@
   </si>
   <si>
     <t>deleteCartBtn</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -404,7 +389,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -454,7 +439,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -746,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,21 +739,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,9 +751,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,18 +760,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,9 +773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,18 +811,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,19 +829,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1271,852 +1213,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>13</v>
+      <c r="F13" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>34</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>30</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>31</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>32</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
-        <v>33</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
-        <v>35</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
-        <v>26</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D17" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
-        <v>27</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
-        <v>28</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>29</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>30</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>31</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>32</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
-        <v>33</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="19">
-        <v>34</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="44" t="s">
+      <c r="E17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F17" s="41" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F17" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2124,232 +1569,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98325CF6-CFCC-4D8F-B345-6B6327458CD2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="72"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="64" t="s">
+      <c r="B1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64" t="s">
+      <c r="C4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64" t="s">
+      <c r="C5" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64" t="s">
+      <c r="C8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
+      <c r="C15" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64" t="s">
+      <c r="C16" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="70" t="s">
+      <c r="C17" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2364,971 +1789,971 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="36" t="s">
+      <c r="C32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="36" t="s">
+      <c r="C33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="36" t="s">
+      <c r="C35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="36" t="s">
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="36" t="s">
+      <c r="C43" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="26" t="s">
         <v>66</v>
       </c>
     </row>

--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/vital_marciano_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/neta_amzalag_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="106_{C0C8223A-A9F7-4353-B661-105B92DF5FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1BB3F46-9E8A-4135-9F73-12733E6189DA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{A35FF41F-297D-4C5A-9D53-423832ACD0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{448057C6-3B96-4F64-9101-3F8BF63D3374}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
     <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'בלי כפיליות'!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'בלי כפיליות'!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -312,24 +312,9 @@
     <t>deleteItemFromCartXBtn</t>
   </si>
   <si>
-    <t>IncreaseItemFromCart</t>
-  </si>
-  <si>
-    <t>deacreaseItemFromCartSuccses</t>
-  </si>
-  <si>
-    <t>הפחתת כמות ממוצר בעגלה מהקטלוג</t>
-  </si>
-  <si>
     <t>deacreaseItemInCartFromCatalogSuccses</t>
   </si>
   <si>
-    <t>IncreaseItemInCartFromCatalogSuccses</t>
-  </si>
-  <si>
-    <t>הוספת כמות ממוצר בעגלה מהקטלוג</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -379,17 +364,231 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>רכישה (ראשונה?) מוצלחת</t>
+  </si>
+  <si>
+    <t>mbrEKSuccsesDeliveryPerchuse</t>
+  </si>
+  <si>
+    <t>CreateNewOrder-&gt;CartIsEmpty-&gt;PlaceOrder-&gt;Popup</t>
+  </si>
+  <si>
+    <t>הפחתת כמות ממוצר שבעגלה מהקטלוג</t>
+  </si>
+  <si>
+    <t>plusItemFromCartSuccses</t>
+  </si>
+  <si>
+    <t>minusItemFromCart</t>
+  </si>
+  <si>
+    <r>
+      <t>LoginIn-&gt;CreateNewOrder-&gt;ShipmentMethod-&gt;PlusQuntity-&gt;placeOrder-&gt;EnterDelivery-&gt;payment-&gt;PopupPayment-&gt;Popup[succses]-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waitHomepage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LoginIn-&gt;CreateNewOrder-&gt;ShipmentMethod-&gt;PlusQuntity-&gt;placeOrder-&gt;EnterDelivery-&gt;payment-&gt;Popup[succses]-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waitHomepage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CreateNewOrder-&gt;ShipmentMethod-&gt;PlusQuntity-&gt;Returenbtn-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waitHomepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;CreateNewOrder-&gt;CartIsEmpty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CreateNewOrder-&gt;ShipmentMethod-&gt;PlusQuntity-&gt;CancelOrderbtn-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waitHomepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;CreateNewOrder-&gt;CartIsEmpty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlusQuntity-&gt;placeOrder-&gt;Payment-&gt;Popup[Error]-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CheckText</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EenterDeatils-&gt;Popup[Error]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;CheckText</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlusQuntity-&gt;ViewCart-&gt;PlusQuantityInCart-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkAmountCatalog+CheckAmountLblCart-&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlusQuntity-&gt;ViewCart-&gt;PlusQuantityInCart-&gt;c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heckAmountCatalog+CheckAmountLblCatalog/CartIsEmpty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlusQuntity-&gt;ViewCart-&gt;MinusQuantityInCart-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkAmountCatalog+CheckAmountLbl/CartEmpty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlusQuntity-&gt;ViewCart-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CartNotEMpty-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Catalog-&gt;MinusQuantityCatalog-&gt;ViewCart-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;CartIsEmpty</t>
+    </r>
+  </si>
+  <si>
+    <t>EmptyCartPayment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -439,7 +638,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -727,11 +946,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,32 +1049,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -888,6 +1099,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,24 +1460,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="44.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1497,9 @@
       <c r="F1" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1266,11 +1515,14 @@
       <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G2" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>13</v>
       </c>
@@ -1284,13 +1536,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1301,16 +1556,19 @@
         <v>61</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G4" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1321,16 +1579,19 @@
         <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="60" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G5" s="63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>34</v>
       </c>
@@ -1346,33 +1607,39 @@
       <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="F6" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>59</v>
@@ -1384,15 +1651,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>59</v>
@@ -1404,15 +1674,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>59</v>
@@ -1424,35 +1695,37 @@
         <v>10</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>59</v>
@@ -1460,17 +1733,20 @@
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>59</v>
@@ -1478,17 +1754,20 @@
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
@@ -1496,72 +1775,46 @@
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="60" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="G14" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="53">
+        <v>34</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>34</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="D15" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F15" s="57" t="s">
         <v>66</v>
       </c>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}"/>
+  <autoFilter ref="A1:F15" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}"/>
+  <mergeCells count="1">
+    <mergeCell ref="G8:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1571,210 +1824,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98325CF6-CFCC-4D8F-B345-6B6327458CD2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50" t="s">
+      <c r="C13" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50" t="s">
+      <c r="C15" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50" t="s">
+      <c r="C16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="C17" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,21 +2054,21 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1819,27 +2084,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1859,7 +2124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1879,7 +2144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1897,7 +2162,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1917,7 +2182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1937,7 +2202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1957,7 +2222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1977,7 +2242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1997,7 +2262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2017,7 +2282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2037,7 +2302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2057,7 +2322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2077,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2097,27 +2362,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -2137,7 +2402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -2157,7 +2422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -2177,7 +2442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -2197,7 +2462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -2217,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -2237,7 +2502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -2257,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2277,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -2297,7 +2562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -2317,7 +2582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -2337,7 +2602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -2357,7 +2622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -2377,7 +2642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -2397,7 +2662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -2417,7 +2682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2437,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2457,7 +2722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2477,7 +2742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2497,7 +2762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2517,7 +2782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2537,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2557,7 +2822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2577,27 +2842,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2617,7 +2882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -2637,14 +2902,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -2657,14 +2922,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -2677,14 +2942,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="27" t="s">
@@ -2697,7 +2962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -2717,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2737,7 +3002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -2761,4 +3026,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C13B8670CDADCF4EB66738A43EE21A88" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d363b7f5a0e56dc766d5efb1e788dd4b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5cade48-81c3-4759-8045-c44d9b30b4e7" xmlns:ns4="e258a533-246e-4ad7-bde9-babd2ee697a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="997a9c6e740cc85126496616e78edb44" ns3:_="" ns4:_="">
+    <xsd:import namespace="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
+    <xsd:import namespace="e258a533-246e-4ad7-bde9-babd2ee697a7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d5cade48-81c3-4759-8045-c44d9b30b4e7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e258a533-246e-4ad7-bde9-babd2ee697a7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870D302-74C1-407A-AC9D-54C3B891EFB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
+    <ds:schemaRef ds:uri="e258a533-246e-4ad7-bde9-babd2ee697a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A5AF2E-90FB-4221-AD46-D1DDBA68F77C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C1BE13-2117-4113-8677-6FB0C00BD944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e258a533-246e-4ad7-bde9-babd2ee697a7"/>
+    <ds:schemaRef ds:uri="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/neta_amzalag_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/vital_marciano_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{A35FF41F-297D-4C5A-9D53-423832ACD0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{448057C6-3B96-4F64-9101-3F8BF63D3374}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{A35FF41F-297D-4C5A-9D53-423832ACD0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448057C6-3B96-4F64-9101-3F8BF63D3374}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
+    <workbookView minimized="1" xWindow="7185" yWindow="4275" windowWidth="13305" windowHeight="6645" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
     <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
@@ -391,7 +391,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +421,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -431,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="177"/>
         <scheme val="minor"/>
@@ -447,7 +447,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,7 +457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="177"/>
         <scheme val="minor"/>
@@ -473,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -488,7 +488,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +503,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,7 +518,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,7 +548,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -558,7 +558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="177"/>
         <scheme val="minor"/>
@@ -569,7 +569,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +588,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -638,14 +638,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -658,7 +658,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1452,7 +1452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1462,23 +1462,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>13</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>34</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>30</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>31</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>32</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>33</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>28</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>29</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>30</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>31</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>34</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="G15" s="58"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="34"/>
     </row>
   </sheetData>
@@ -1828,16 +1828,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="E1" s="47"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="50" t="s">
         <v>102</v>
@@ -1861,7 +1861,7 @@
       <c r="E2" s="52"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
       <c r="B3" s="43" t="s">
         <v>91</v>
@@ -1873,7 +1873,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="43" t="s">
         <v>94</v>
@@ -1885,7 +1885,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
       <c r="B5" s="43" t="s">
         <v>98</v>
@@ -1897,7 +1897,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="43" t="s">
         <v>93</v>
@@ -1909,7 +1909,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="43" t="s">
         <v>92</v>
@@ -1921,7 +1921,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="43" t="s">
         <v>103</v>
@@ -1933,7 +1933,7 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="43" t="s">
         <v>105</v>
@@ -1945,7 +1945,7 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="43" t="s">
         <v>106</v>
@@ -1957,7 +1957,7 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="43" t="s">
         <v>104</v>
@@ -1969,7 +1969,7 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="43" t="s">
         <v>95</v>
@@ -1981,7 +1981,7 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="43" t="s">
         <v>96</v>
@@ -1993,7 +1993,7 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
       <c r="B14" s="43" t="s">
         <v>97</v>
@@ -2005,7 +2005,7 @@
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
       <c r="B15" s="43" t="s">
         <v>99</v>
@@ -2017,7 +2017,7 @@
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
       <c r="B16" s="43" t="s">
         <v>100</v>
@@ -2029,7 +2029,7 @@
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="43"/>
       <c r="B17" s="43" t="s">
         <v>101</v>
@@ -2054,17 +2054,17 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -3258,18 +3258,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3292,14 +3292,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A5AF2E-90FB-4221-AD46-D1DDBA68F77C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C1BE13-2117-4113-8677-6FB0C00BD944}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3314,4 +3306,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A5AF2E-90FB-4221-AD46-D1DDBA68F77C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EKrut/jabulaTests.xlsx
+++ b/EKrut/jabulaTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/vital_marciano_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{A35FF41F-297D-4C5A-9D53-423832ACD0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448057C6-3B96-4F64-9101-3F8BF63D3374}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="14_{A35FF41F-297D-4C5A-9D53-423832ACD0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443F0FA2-02CF-40CD-9C34-5236D36C460C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7185" yWindow="4275" windowWidth="13305" windowHeight="6645" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{402B0296-DA83-4036-ACE0-01BDCEF89F96}"/>
   </bookViews>
   <sheets>
     <sheet name="בלי כפיליות" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'בלי כפיליות'!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'בלי כפיליות'!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>רכישה (ראשונה?) מוצלחת</t>
   </si>
   <si>
     <t>mbrEKSuccsesDeliveryPerchuse</t>
@@ -578,6 +575,24 @@
   </si>
   <si>
     <t>EmptyCartPayment</t>
+  </si>
+  <si>
+    <t>רכישה (ראשונה מוצלחת</t>
+  </si>
+  <si>
+    <t>מממלאים פרטים עם תווים לא נכונים</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>בוצע בלי בדיקה בקטלוג</t>
+  </si>
+  <si>
+    <t>הוספה לעגלה מעבר לסקירת הזמנה חזרה לקטלוג הוספת עוד מוצרים ומעבר לסקירה וסיום קנייה</t>
+  </si>
+  <si>
+    <t>בוצע בלי בדיקה בהזמנה חדשה שהעגלה ריקה</t>
   </si>
 </sst>
 </file>
@@ -663,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +691,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -959,21 +992,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,16 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,18 +1071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,22 +1138,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1145,6 +1212,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8181"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
@@ -1460,9 +1529,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1472,348 +1541,409 @@
     <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="44.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="50">
+        <v>13</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>23</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>24</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="50">
+        <v>34</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
+        <v>30</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>31</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>32</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="50">
+        <v>33</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C12" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E12" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>28</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="C13" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="51">
+        <v>29</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>30</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>31</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
         <v>34</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>30</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>33</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>34</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="55" t="s">
+      <c r="D17" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F17" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="34"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F15" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}"/>
-  <mergeCells count="1">
-    <mergeCell ref="G8:G10"/>
+  <autoFilter ref="A1:F17" xr:uid="{4578AC60-054D-4D63-83A7-2DCD1DC44005}"/>
+  <mergeCells count="2">
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1838,208 +1968,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,7 +2187,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="130.75" bestFit="1" customWidth="1"/>
@@ -2065,960 +2195,960 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3258,18 +3388,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3292,6 +3422,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A5AF2E-90FB-4221-AD46-D1DDBA68F77C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C1BE13-2117-4113-8677-6FB0C00BD944}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3306,12 +3444,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A5AF2E-90FB-4221-AD46-D1DDBA68F77C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>